--- a/TP2/Punto10B.xlsx
+++ b/TP2/Punto10B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel Baamonde\Desktop\UNLP\2do AÑO\ISO\Práctica\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC2A47B-3A49-4FE3-9FCF-333A6793A3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8450110F-8969-49C0-9243-4372C005200A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D9EFB15E-7B05-432C-A0A4-F94A7593FDAF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Proceso</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>I/O | Recurso, Instante, Duración</t>
-  </si>
-  <si>
-    <t>RR-TV</t>
   </si>
   <si>
     <t>Quantum = 2</t>
@@ -67,9 +64,6 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t>Punto 9.B</t>
-  </si>
-  <si>
     <t>&gt;1</t>
   </si>
   <si>
@@ -114,6 +108,9 @@
   </si>
   <si>
     <t>VRR</t>
+  </si>
+  <si>
+    <t>Punto 10.B</t>
   </si>
 </sst>
 </file>
@@ -387,36 +384,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -428,9 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -440,6 +404,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,16 +754,16 @@
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="23"/>
+      <c r="A1" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="44"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -783,11 +780,11 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="3">
         <v>0</v>
       </c>
@@ -862,36 +859,36 @@
       <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="41">
+      <c r="D3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="30">
         <v>2</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="42">
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="31">
         <v>3</v>
       </c>
-      <c r="R3" s="42" t="s">
-        <v>23</v>
+      <c r="R3" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -913,46 +910,46 @@
       <c r="C4" s="3">
         <v>6</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
+      <c r="D4" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="42">
+      <c r="I4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="31">
         <v>2</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="42">
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="31">
         <v>3</v>
       </c>
-      <c r="O4" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="42">
+      <c r="O4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="31">
         <v>4</v>
       </c>
-      <c r="V4" s="42">
+      <c r="V4" s="31">
         <v>5</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="43" t="s">
-        <v>25</v>
+      <c r="W4" s="35"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="AA4" s="4"/>
     </row>
@@ -966,41 +963,41 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="D5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="43">
+      <c r="J5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="32">
         <v>1</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="31">
         <v>2</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="T5" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="U5" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="V5" s="46"/>
-      <c r="W5" s="42" t="s">
-        <v>23</v>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="35"/>
+      <c r="W5" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
@@ -1017,41 +1014,41 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="42">
+      <c r="M6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="35"/>
+      <c r="O6" s="31">
         <v>1</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="31">
         <v>2</v>
       </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="42">
+      <c r="Q6" s="36"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="31">
         <v>3</v>
       </c>
-      <c r="Y6" s="42">
+      <c r="Y6" s="31">
         <v>4</v>
       </c>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="42" t="s">
-        <v>26</v>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1064,9 +1061,9 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1075,17 +1072,17 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="42">
+      <c r="O7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="31">
         <v>1</v>
       </c>
-      <c r="T7" s="42" t="s">
-        <v>24</v>
+      <c r="T7" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -1097,13 +1094,13 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="21"/>
+      <c r="C8" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="42"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
@@ -1119,7 +1116,7 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="45"/>
+      <c r="T8" s="34"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
@@ -1129,22 +1126,22 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="22"/>
+      <c r="A9" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="43"/>
       <c r="D9" s="14"/>
       <c r="F9" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="17"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33">
+      <c r="M9" s="22"/>
+      <c r="N9" s="23">
         <v>1</v>
       </c>
       <c r="O9" s="18"/>
@@ -1162,17 +1159,17 @@
       <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="33">
+      <c r="I10" s="23">
         <v>1</v>
       </c>
       <c r="J10" s="18"/>
@@ -1184,7 +1181,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="17"/>
       <c r="P10" s="18"/>
-      <c r="Q10" s="33">
+      <c r="Q10" s="23">
         <v>2</v>
       </c>
       <c r="R10" s="18"/>
@@ -1192,7 +1189,7 @@
       <c r="T10" s="17"/>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
-      <c r="W10" s="33">
+      <c r="W10" s="23">
         <v>2</v>
       </c>
       <c r="X10" s="18"/>
@@ -1201,40 +1198,40 @@
       <c r="AA10" s="18"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F11" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30">
+      <c r="F11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20">
         <v>3</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="37">
+      <c r="K11" s="21"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="27">
         <v>3</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="37">
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="27">
         <v>3</v>
       </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F12" s="34" t="s">
-        <v>19</v>
+      <c r="F12" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -1248,7 +1245,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
-      <c r="Q12" s="33">
+      <c r="Q12" s="23">
         <v>4</v>
       </c>
       <c r="R12" s="17"/>
@@ -1265,8 +1262,8 @@
       <c r="AA12" s="18"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F13" s="34" t="s">
-        <v>20</v>
+      <c r="F13" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -1293,99 +1290,99 @@
       <c r="AA13" s="18"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="A17" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/TP2/Punto10B.xlsx
+++ b/TP2/Punto10B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel Baamonde\Desktop\UNLP\2do AÑO\ISO\Práctica\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8450110F-8969-49C0-9243-4372C005200A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531D96FE-AB01-4F9C-806F-83FB610A9483}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D9EFB15E-7B05-432C-A0A4-F94A7593FDAF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Proceso</t>
   </si>
@@ -46,61 +46,10 @@
 &lt;: Indica final</t>
   </si>
   <si>
-    <t>(R2, 3, 2)</t>
-  </si>
-  <si>
-    <t>(R2, 2, 3)</t>
-  </si>
-  <si>
-    <t>(R1, 2, 3)</t>
-  </si>
-  <si>
     <t>Qeue R1</t>
   </si>
   <si>
     <t>Qeue R2</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&gt;1</t>
-  </si>
-  <si>
-    <t>I/O</t>
-  </si>
-  <si>
-    <t>Qeue 1</t>
-  </si>
-  <si>
-    <t>Qeue 2</t>
-  </si>
-  <si>
-    <t>Qeue 3</t>
-  </si>
-  <si>
-    <t>Qeue 4</t>
-  </si>
-  <si>
-    <t>Qeue 5</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>4&lt;</t>
-  </si>
-  <si>
-    <t>2&lt;</t>
-  </si>
-  <si>
-    <t>6&lt;</t>
-  </si>
-  <si>
-    <t>5&lt;</t>
   </si>
   <si>
     <t>*Lo que noto es que esto evita que un mismo recurso en un instante determinado demoré más en ejecutarse para otra tarea
@@ -111,6 +60,27 @@
   </si>
   <si>
     <t>Punto 10.B</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>(R1, 2, 1)</t>
+  </si>
+  <si>
+    <t>(R2, 3, 1) (R2, 5, 2)</t>
+  </si>
+  <si>
+    <t>(R3, 1, 2) (R3, 3, 1)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Qeue R3</t>
+  </si>
+  <si>
+    <t>Qeue AUX</t>
   </si>
 </sst>
 </file>
@@ -187,13 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +164,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,30 +184,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -348,16 +295,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,7 +313,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -384,26 +328,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -436,6 +365,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,17 +701,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DAE6C5-6CD5-4E02-B812-7C71DF0D46F9}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="44"/>
+      <c r="A1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="26"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -780,11 +728,11 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="3">
         <v>0</v>
       </c>
@@ -859,44 +807,30 @@
       <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="28" t="s">
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="30">
-        <v>2</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="31">
-        <v>3</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
@@ -910,47 +844,31 @@
       <c r="C4" s="3">
         <v>6</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+      <c r="D4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="31">
-        <v>2</v>
-      </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="31">
-        <v>3</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="31">
-        <v>4</v>
-      </c>
-      <c r="V4" s="31">
-        <v>5</v>
-      </c>
-      <c r="W4" s="35"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="32" t="s">
-        <v>23</v>
-      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -964,44 +882,30 @@
         <v>4</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="40"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="32">
-        <v>1</v>
-      </c>
-      <c r="M5" s="31">
-        <v>2</v>
-      </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="U5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="V5" s="35"/>
-      <c r="W5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1014,42 +918,32 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="31">
-        <v>1</v>
-      </c>
-      <c r="P6" s="31">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="31">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="31">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="31" t="s">
-        <v>24</v>
-      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1061,7 +955,9 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="38" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="39"/>
       <c r="F7" s="40"/>
       <c r="G7" s="4"/>
@@ -1072,317 +968,279 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="31">
-        <v>1</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>26</v>
+      <c r="A8" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="D9" s="14"/>
-      <c r="F9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23">
-        <v>1</v>
-      </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
+      <c r="B9" s="25"/>
+      <c r="D9" s="11"/>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="23">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17">
-        <v>2</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="23">
-        <v>2</v>
-      </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="23">
-        <v>2</v>
-      </c>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20">
-        <v>3</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="27">
-        <v>3</v>
-      </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="27">
-        <v>3</v>
-      </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F12" s="24" t="s">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E13" s="34"/>
+      <c r="F13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="17">
-        <v>4</v>
-      </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="23">
-        <v>4</v>
-      </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="18"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="17">
-        <v>5</v>
-      </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="A17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
